--- a/ky/downloads/data-excel/3.2.1.xlsx
+++ b/ky/downloads/data-excel/3.2.1.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,10 +288,17 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,7 +385,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -500,12 +507,20 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -834,20 +849,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="16" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="42.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
@@ -869,7 +881,7 @@
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
     </row>
-    <row r="2" spans="1:19" s="14" customFormat="1" ht="31.5" customHeight="1">
+    <row r="2" spans="1:20" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
@@ -891,7 +903,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -907,7 +919,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -965,8 +977,11 @@
       <c r="S4" s="24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1024,185 +1039,197 @@
       <c r="S5" s="30">
         <v>16.696653653506477</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="7" t="s">
+      <c r="T5" s="30">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="48" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="46">
         <v>38.5</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>35.200000000000003</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="47">
         <v>32</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="26">
         <v>29.2</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>27.13</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <v>25.94</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <v>25.72</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>24.9</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>23.2</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>21.1</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="29">
         <v>20.3</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="29">
         <v>19.399999999999999</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <v>19.2</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="31">
         <v>17.8</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="31">
         <v>19.649999999999999</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="31">
         <v>17.71894995601205</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="7" t="s">
+      <c r="T6" s="31">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="48" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="46">
         <v>32</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="46">
         <v>27.6</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="47">
         <v>26.5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="26">
         <v>23.6</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>21.81</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <v>20.78</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>20.72</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <v>21.2</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>19.600000000000001</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>18.399999999999999</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="29">
         <v>16.600000000000001</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="29">
         <v>15.6</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="31">
         <v>15.8</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="31">
         <v>15.6</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="31">
         <v>16.079999999999998</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="31">
         <v>15.612684844888001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="9" t="s">
+      <c r="T7" s="31">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="50" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>40.299999999999997</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>39.700000000000003</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>33.700000000000003</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>34.299999999999997</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>28.73</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>25.9</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>25.75</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>23.6</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>21.8</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>18.8</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="33">
         <v>18.600000000000001</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="33">
         <v>14.9</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="30">
         <v>17.7</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="30">
         <v>16.7</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="30">
         <v>16.86</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="30">
         <v>15.66812062518596</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" s="30">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1260,8 +1287,11 @@
       <c r="S9" s="31">
         <v>16.652881900156387</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="31">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1319,67 +1349,73 @@
       <c r="S10" s="31">
         <v>14.667361954014684</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="9" t="s">
+      <c r="T10" s="31">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="50" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>30.8</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>26.2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>24.5</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>21.9</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>20.65</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>19.8</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>20.95</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>21.9</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>21.1</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>19.8</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="33">
         <v>17.2</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="33">
         <v>15.7</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="30">
         <v>16.2</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="30">
         <v>15.5</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>17.399999999999999</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <v>16.525244796823369</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="30">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1437,8 +1473,11 @@
       <c r="S12" s="31">
         <v>19.119250309028729</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="31">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1496,67 +1535,73 @@
       <c r="S13" s="31">
         <v>13.749215987119079</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="9" t="s">
+      <c r="T13" s="31">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="50" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>28.9</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>28</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>24.9</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>22.3</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>24.81</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>24</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>19.47</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>16.899999999999999</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>18.8</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>17.8</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="33">
         <v>15.2</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="33">
         <v>14.3</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="30">
         <v>18.3</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="30">
         <v>14.3</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="30">
         <v>26.64</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <v>14.263200620072119</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="30">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1614,8 +1659,11 @@
       <c r="S15" s="31">
         <v>16.214093517712168</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="31">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1673,67 +1721,73 @@
       <c r="S16" s="31">
         <v>12.189607205170377</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="9" t="s">
+      <c r="T16" s="31">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="50" customFormat="1">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>33.9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>30.1</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>28</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>25</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>20.059999999999999</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>21.7</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>20.2</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>22.6</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>16.8</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>17.899999999999999</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="33">
         <v>18.2</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="33">
         <v>15.1</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="30">
         <v>12.5</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="30">
         <v>14.2</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="30">
         <v>13.87</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="30">
         <v>14.097780631317802</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="30">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1791,8 +1845,11 @@
       <c r="S18" s="31">
         <v>16.597474200848456</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18" s="31">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1850,67 +1907,73 @@
       <c r="S19" s="31">
         <v>11.56800988291025</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="9" t="s">
+      <c r="T19" s="31">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="50" customFormat="1">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>34.700000000000003</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>29.9</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>26.1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>24.1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>21.14</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>19</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>17.170000000000002</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>15</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>14.3</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>12.2</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="33">
         <v>11.7</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="33">
         <v>11</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="30">
         <v>10.6</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <v>10</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="30">
         <v>11.98</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="30">
         <v>11.191263248519153</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20" s="30">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1968,8 +2031,11 @@
       <c r="S21" s="31">
         <v>11.361761672735106</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21" s="31">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -2027,67 +2093,73 @@
       <c r="S22" s="31">
         <v>11.015850216858553</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="9" t="s">
+      <c r="T22" s="31">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="50" customFormat="1">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>43.8</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>38.299999999999997</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>39</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>29.5</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>27.69</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>22.9</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>26.52</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>24.1</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>17.8</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>19.7</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="33">
         <v>17.100000000000001</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="33">
         <v>22.8</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="30">
         <v>20.6</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="30">
         <v>25.1</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="30">
         <v>24.53</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="30">
         <v>15.623145704601036</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23" s="30">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -2145,8 +2217,11 @@
       <c r="S24" s="31">
         <v>18.344423887154832</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24" s="31">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -2204,67 +2279,73 @@
       <c r="S25" s="31">
         <v>12.847349120106124</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="9" t="s">
+      <c r="T25" s="31">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="50" customFormat="1">
+      <c r="A26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>31.6</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>27.4</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>25.1</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>24.2</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>22.6</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>20.8</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>21.22</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>18.600000000000001</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>17.100000000000001</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>16.5</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="33">
         <v>12.9</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="33">
         <v>12.7</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="30">
         <v>13.1</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="30">
         <v>11.8</v>
       </c>
-      <c r="R26" s="31">
+      <c r="R26" s="30">
         <v>13.54</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="30">
         <v>13.798472231512836</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26" s="30">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2322,8 +2403,11 @@
       <c r="S27" s="31">
         <v>15.128863237337196</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27" s="31">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2381,67 +2465,73 @@
       <c r="S28" s="31">
         <v>12.394222749619622</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="11" t="s">
+      <c r="T28" s="31">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="50" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>36.299999999999997</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>34.6</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>32.299999999999997</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>28.2</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>26.24</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>24.8</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>25.69</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>28.6</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>26.6</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="25">
         <v>25.7</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="33">
         <v>26.4</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="33">
         <v>25</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P29" s="30">
         <v>21.7</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="30">
         <v>20.9</v>
       </c>
-      <c r="R29" s="31">
+      <c r="R29" s="30">
         <v>17.84</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="30">
         <v>21.380402934584232</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2499,8 +2589,11 @@
       <c r="S30" s="31">
         <v>19.968977602899539</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30" s="31">
+        <v>48.878999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2558,67 +2651,73 @@
       <c r="S31" s="31">
         <v>22.891947678227961</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="11" t="s">
+      <c r="T31" s="31">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="50" customFormat="1">
+      <c r="A32" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>63.7</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>52.9</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>64.400000000000006</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>52.9</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>58.25</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>63.4</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>65.59</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>72.400000000000006</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>70.3</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>60</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="33">
         <v>53.1</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="33">
         <v>39</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="30">
         <v>37.200000000000003</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="30">
         <v>36.9</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="30">
         <v>30.69</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="30">
         <v>28.912046224512313</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32" s="30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2676,8 +2775,11 @@
       <c r="S33" s="31">
         <v>31.246721692820181</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T33" s="31">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2729,11 +2831,14 @@
       <c r="Q34" s="32">
         <v>34.200000000000003</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="45">
         <v>25.64</v>
       </c>
-      <c r="S34" s="47">
+      <c r="S34" s="45">
         <v>26.427454495987305</v>
+      </c>
+      <c r="T34" s="45">
+        <v>55.55</v>
       </c>
     </row>
   </sheetData>
